--- a/Raftaar/assets/testdata.xlsx
+++ b/Raftaar/assets/testdata.xlsx
@@ -9,15 +9,12 @@
   <sheets>
     <sheet name="EmployeeInfo" sheetId="12" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>sl</t>
   </si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>this is scenario number two</t>
   </si>
 </sst>
 </file>
@@ -183,87 +183,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Speciality Benefits"/>
-      <sheetName val="Manage Users"/>
-      <sheetName val="WIC_Group_Lead"/>
-      <sheetName val="WIC_methods_Sonal"/>
-      <sheetName val="methods"/>
-      <sheetName val="WIC_Group_Setup"/>
-      <sheetName val="WIC Enrollment Setup"/>
-      <sheetName val="TestRegistration"/>
-      <sheetName val="Sign UpSign In"/>
-      <sheetName val="Sanity"/>
-      <sheetName val="Review Proposals"/>
-      <sheetName val="Renewal"/>
-      <sheetName val="Rating_Statewise"/>
-      <sheetName val="Rating - Composite"/>
-      <sheetName val="Rating - Community"/>
-      <sheetName val="Rating - Age Banded"/>
-      <sheetName val="Plan Listing"/>
-      <sheetName val="Payroll Report"/>
-      <sheetName val="Manage Packages"/>
-      <sheetName val="Manage Enrollments"/>
-      <sheetName val="Manage Employees"/>
-      <sheetName val="Manage Classes"/>
-      <sheetName val="LSC"/>
-      <sheetName val="ITL"/>
-      <sheetName val="Flex"/>
-      <sheetName val="EndToEnd Flows"/>
-      <sheetName val="Define Settings"/>
-      <sheetName val="Define Contribution"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Anonymous Flow"/>
-      <sheetName val="Ancillary"/>
-      <sheetName val="Account Information"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="$automationKeywords$"/>
-      <sheetName val="$plugin$"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,11 +472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -664,6 +583,50 @@
         <v>20</v>
       </c>
     </row>
+    <row r="3" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Raftaar/assets/testdata.xlsx
+++ b/Raftaar/assets/testdata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>sl</t>
   </si>
@@ -25,12 +25,6 @@
     <t>LaunchPortal</t>
   </si>
   <si>
-    <t>SignUpInfo</t>
-  </si>
-  <si>
-    <t>AddManualEmployee</t>
-  </si>
-  <si>
     <t>UploadEmployeeRoster</t>
   </si>
   <si>
@@ -80,13 +74,28 @@
   </si>
   <si>
     <t>this is scenario number two</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Iteration Number Three</t>
+  </si>
+  <si>
+    <t>Qwerty@12</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +122,14 @@
       <color theme="1"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -153,10 +170,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -168,8 +186,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,11 +494,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -484,7 +506,7 @@
     <col min="1" max="1" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -506,129 +528,177 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>